--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>0.04094889914187509</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.934022546676284</v>
+        <v>-1.932151495047784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3921523526250914</v>
+        <v>0.3917128781497279</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2302121267499233</v>
+        <v>-0.2301946061728324</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.07965387430721314</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.947817081039189</v>
+        <v>-1.946203727898735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3107678119897496</v>
+        <v>0.3101896329457497</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.209923298478656</v>
+        <v>-0.2102868504532923</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1146617133288316</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.01797750197567</v>
+        <v>-2.015586673226808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2835933969217569</v>
+        <v>0.2834065107661206</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2273329119146514</v>
+        <v>-0.2278074275441967</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1381431826741034</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.081733421961381</v>
+        <v>-2.080628895580608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2596164871728542</v>
+        <v>0.2590076471189453</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2340681137580132</v>
+        <v>-0.2345849707821949</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1506690081655528</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.048964102609026</v>
+        <v>-2.047248546102208</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2458482336755852</v>
+        <v>0.2460336597831306</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2219803756133801</v>
+        <v>-0.22244613095438</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1558156365631212</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.914877666084244</v>
+        <v>-1.914065149321653</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2628285929728534</v>
+        <v>0.261475128392581</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2087917612082018</v>
+        <v>-0.2091742938080199</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1618019524920004</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.643394133988544</v>
+        <v>-1.642174993832635</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2609115498294903</v>
+        <v>0.2590529086097635</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1841198685680266</v>
+        <v>-0.1831766775012996</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1767283961523299</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.266805389948554</v>
+        <v>-1.265032891566191</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2453970788154944</v>
+        <v>0.2433924327866768</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.126799840567042</v>
+        <v>-0.1252697101677697</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2083224459106286</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7798165695625939</v>
+        <v>-0.7772468849225946</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2701200731388514</v>
+        <v>0.2680774658596702</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02715885860297784</v>
+        <v>-0.02592073782188726</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2647524978244945</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2451396584313739</v>
+        <v>-0.2419217124390111</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1632343325476983</v>
+        <v>0.162711635331153</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06101490565508939</v>
+        <v>0.06236983028345267</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3506982998223349</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4230250695073558</v>
+        <v>0.4239288392756283</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04168532897954913</v>
+        <v>0.04129257604309469</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1599550645355174</v>
+        <v>0.161927589506335</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4700456244252852</v>
       </c>
       <c r="E13" t="n">
-        <v>1.108107374675445</v>
+        <v>1.110316427436989</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1233205459664066</v>
+        <v>-0.1244608435254063</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2918952303666638</v>
+        <v>0.2932326344179361</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6232335158917923</v>
       </c>
       <c r="E14" t="n">
-        <v>1.82486980332007</v>
+        <v>1.826836488098524</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.346588179931983</v>
+        <v>-0.3454084610745288</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4383672548466244</v>
+        <v>0.4404113221738966</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8088394565411358</v>
       </c>
       <c r="E15" t="n">
-        <v>2.530013169257245</v>
+        <v>2.531134486191062</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6181235437349101</v>
+        <v>-0.6171613720430013</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6266448363135739</v>
+        <v>0.628577939985937</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.020137608822627</v>
       </c>
       <c r="E16" t="n">
-        <v>3.202372615361155</v>
+        <v>3.201714133672155</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9367863398161881</v>
+        <v>-0.9366403350070973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7824538683348957</v>
+        <v>0.783983998734168</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.24662677627365</v>
       </c>
       <c r="E17" t="n">
-        <v>3.860283425557433</v>
+        <v>3.858353241981252</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.196506994467482</v>
+        <v>-1.195901074509755</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9812671568258423</v>
+        <v>0.9830235946792054</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.478820769139575</v>
       </c>
       <c r="E18" t="n">
-        <v>4.400317253134197</v>
+        <v>4.398032277871925</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.556493531665749</v>
+        <v>-1.556820582438112</v>
       </c>
       <c r="G18" t="n">
-        <v>1.180541820513516</v>
+        <v>1.182158093750152</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.705544083350633</v>
       </c>
       <c r="E19" t="n">
-        <v>4.929266395604782</v>
+        <v>4.926390100865692</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.839768412143628</v>
+        <v>-1.838790179922719</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37763225225719</v>
+        <v>1.377798697739554</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.918088162921899</v>
       </c>
       <c r="E20" t="n">
-        <v>5.291337881476867</v>
+        <v>5.287592858123686</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.160256998362587</v>
+        <v>-2.159679549342632</v>
       </c>
       <c r="G20" t="n">
-        <v>1.586994388204952</v>
+        <v>1.587416342103225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.107643902739243</v>
       </c>
       <c r="E21" t="n">
-        <v>5.602357325802238</v>
+        <v>5.59905031687633</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.476569847041548</v>
+        <v>-2.474502418944821</v>
       </c>
       <c r="G21" t="n">
-        <v>1.767395010221449</v>
+        <v>1.767479693010722</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.264861203686256</v>
       </c>
       <c r="E22" t="n">
-        <v>5.840091116252538</v>
+        <v>5.835436482938721</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.786496445370873</v>
+        <v>-2.78436258508601</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89482654754787</v>
+        <v>1.89500321336687</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.381523798286127</v>
       </c>
       <c r="E23" t="n">
-        <v>5.99071113735877</v>
+        <v>5.984302986287772</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.037352418038215</v>
+        <v>-3.035898940163715</v>
       </c>
       <c r="G23" t="n">
-        <v>2.013229147480111</v>
+        <v>2.012538544733111</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.451268640523258</v>
       </c>
       <c r="E24" t="n">
-        <v>6.080972770386836</v>
+        <v>6.074671202826474</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.271259422442243</v>
+        <v>-3.26983222543338</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115464634901719</v>
+        <v>2.115022240330174</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.472243180139996</v>
       </c>
       <c r="E25" t="n">
-        <v>6.094910389462651</v>
+        <v>6.088042323243016</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.446138142578923</v>
+        <v>-3.444456897202242</v>
       </c>
       <c r="G25" t="n">
-        <v>2.171987476645068</v>
+        <v>2.17314821487734</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.44726357787778</v>
       </c>
       <c r="E26" t="n">
-        <v>6.042640667808119</v>
+        <v>6.035771141540394</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.611768918107788</v>
+        <v>-3.609567165586698</v>
       </c>
       <c r="G26" t="n">
-        <v>2.198390986321061</v>
+        <v>2.199469961860242</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.381558854755382</v>
       </c>
       <c r="E27" t="n">
-        <v>5.941269528856329</v>
+        <v>5.935436636733148</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.700366096312219</v>
+        <v>-3.697462060659401</v>
       </c>
       <c r="G27" t="n">
-        <v>2.200452574225424</v>
+        <v>2.201236620050242</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.282302154919528</v>
       </c>
       <c r="E28" t="n">
-        <v>5.868735799748076</v>
+        <v>5.863663592680258</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.767429755247882</v>
+        <v>-3.764657123923247</v>
       </c>
       <c r="G28" t="n">
-        <v>2.208236090598058</v>
+        <v>2.209561814264603</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.15732411386209</v>
       </c>
       <c r="E29" t="n">
-        <v>5.672354951376582</v>
+        <v>5.668018608546584</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.805802739173145</v>
+        <v>-3.802354835606464</v>
       </c>
       <c r="G29" t="n">
-        <v>2.20602119764415</v>
+        <v>2.205641585140513</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.014741348360165</v>
       </c>
       <c r="E30" t="n">
-        <v>5.461394062769275</v>
+        <v>5.457408131481094</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.832310642287638</v>
+        <v>-3.827153752430549</v>
       </c>
       <c r="G30" t="n">
-        <v>2.160244309849889</v>
+        <v>2.159664670757798</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.862725937892571</v>
       </c>
       <c r="E31" t="n">
-        <v>5.18285630832235</v>
+        <v>5.179185747421806</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.728884485647893</v>
+        <v>-3.723656783458394</v>
       </c>
       <c r="G31" t="n">
-        <v>2.077736992232639</v>
+        <v>2.07699966794673</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.70745710699565</v>
       </c>
       <c r="E32" t="n">
-        <v>4.876284170481887</v>
+        <v>4.872179975298343</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.647058280465051</v>
+        <v>-3.641531998440962</v>
       </c>
       <c r="G32" t="n">
-        <v>1.931946810211133</v>
+        <v>1.930425440100406</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.555221157121603</v>
       </c>
       <c r="E33" t="n">
-        <v>4.594651114082236</v>
+        <v>4.590695843803964</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.510788342020315</v>
+        <v>-3.506066546494317</v>
       </c>
       <c r="G33" t="n">
-        <v>1.839671770865703</v>
+        <v>1.838327066573976</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.410632931059973</v>
       </c>
       <c r="E34" t="n">
-        <v>4.263115073983416</v>
+        <v>4.260051893088689</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.397864572549209</v>
+        <v>-3.394629105979755</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7148391191411</v>
+        <v>1.714569010244282</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.275028013195598</v>
       </c>
       <c r="E35" t="n">
-        <v>3.91902116025469</v>
+        <v>3.915496604163236</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.279333488384968</v>
+        <v>-3.276100211887651</v>
       </c>
       <c r="G35" t="n">
-        <v>1.601384622188949</v>
+        <v>1.600118760494131</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.148639596210981</v>
       </c>
       <c r="E36" t="n">
-        <v>3.583535690069962</v>
+        <v>3.579523477916144</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.154119034084593</v>
+        <v>-3.15049957486723</v>
       </c>
       <c r="G36" t="n">
-        <v>1.455920030891715</v>
+        <v>1.455550638724715</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.03044779757291</v>
       </c>
       <c r="E37" t="n">
-        <v>3.233763649315692</v>
+        <v>3.231588177660238</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.014224526254176</v>
+        <v>-3.012809739654085</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325050080311204</v>
+        <v>1.324744930260205</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.9215536853053277</v>
       </c>
       <c r="E38" t="n">
-        <v>2.874851707512334</v>
+        <v>2.871617700990971</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.959155162385327</v>
+        <v>-2.958689407044327</v>
       </c>
       <c r="G38" t="n">
-        <v>1.179204416462244</v>
+        <v>1.178951828142516</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8219757380244872</v>
       </c>
       <c r="E39" t="n">
-        <v>2.530884817967517</v>
+        <v>2.5284304771267</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.819652677467319</v>
+        <v>-2.818996385850455</v>
       </c>
       <c r="G39" t="n">
-        <v>1.078474238622362</v>
+        <v>1.077777795682998</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7307270253646602</v>
       </c>
       <c r="E40" t="n">
-        <v>2.213628048197784</v>
+        <v>2.211556239956785</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.702728376227123</v>
+        <v>-2.702399135382623</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9582655592016667</v>
+        <v>0.9577749830431214</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6466098334714201</v>
       </c>
       <c r="E41" t="n">
-        <v>1.880753143999601</v>
+        <v>1.878784999173056</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.573610483355703</v>
+        <v>-2.573287812727612</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8363836646687903</v>
+        <v>0.8358157059614268</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5677786834556655</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549447791499144</v>
+        <v>1.547942481917417</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.508744926820902</v>
+        <v>-2.507693692195448</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7201901174980943</v>
+        <v>0.7193213888840035</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4939407941279227</v>
       </c>
       <c r="E43" t="n">
-        <v>1.284387740979397</v>
+        <v>1.282475077980307</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.428367089344242</v>
+        <v>-2.427480840153061</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6562662919819295</v>
+        <v>0.655860398612657</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4237272819441242</v>
       </c>
       <c r="E44" t="n">
-        <v>1.01611412461156</v>
+        <v>1.013547360067743</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.313921219738364</v>
+        <v>-2.313745283943409</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5487264498460493</v>
+        <v>0.5481964523890495</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3566439267252177</v>
       </c>
       <c r="E45" t="n">
-        <v>0.795914051684983</v>
+        <v>0.7919587814067113</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.269626280756376</v>
+        <v>-2.269598539842649</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4421458593058962</v>
+        <v>0.441812968341169</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2922168004170155</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5616186744887731</v>
+        <v>0.5575816415174106</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.178647764115673</v>
+        <v>-2.178192959135355</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3750449691439142</v>
+        <v>0.3737104851888236</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2316548821629668</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3630200130671901</v>
+        <v>0.3590647427889185</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.089424955304288</v>
+        <v>-2.088069300651879</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2944692951509358</v>
+        <v>0.2933392179285725</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1757192896711504</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2438596481757676</v>
+        <v>0.2394590632297688</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.98488624201927</v>
+        <v>-1.983903629654089</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2054968845871415</v>
+        <v>0.2037112457719602</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.125128101619408</v>
       </c>
       <c r="E49" t="n">
-        <v>0.114992883575984</v>
+        <v>0.110754363968076</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.88657609389007</v>
+        <v>-1.88474519358407</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1531264196143374</v>
+        <v>0.1517904756111559</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.07969007667314455</v>
       </c>
       <c r="E50" t="n">
-        <v>0.009885481559557669</v>
+        <v>0.005744785173740599</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.802489734262501</v>
+        <v>-1.800243450274638</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08678037431535521</v>
+        <v>0.08521812285808289</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.03923034470547768</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08079956541487253</v>
+        <v>-0.08437668323759884</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.672971788214172</v>
+        <v>-1.670405023670355</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02912745534964341</v>
+        <v>0.02684394013546221</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.004198020728497436</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1858485655076625</v>
+        <v>-0.1877013665350256</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.553071178940659</v>
+        <v>-1.550137942326024</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.008460022702710132</v>
+        <v>-0.009457235548800774</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02571792410855457</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3061959494969938</v>
+        <v>-0.3073669080659026</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.44024742276378</v>
+        <v>-1.437855863990872</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0760281282537829</v>
+        <v>-0.07657856638405548</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.05104814609306996</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3402106898708938</v>
+        <v>-0.341245863967348</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.368535700730709</v>
+        <v>-1.366279926430255</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1399534138180385</v>
+        <v>-0.140376827764402</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07292850309329206</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4687883649486774</v>
+        <v>-0.4695724107734954</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.324093296891539</v>
+        <v>-1.320908932005267</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1504862007458538</v>
+        <v>-0.1495517699676722</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.09286244807753974</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5490384482173831</v>
+        <v>-0.5482368818154743</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.237591287697562</v>
+        <v>-1.236541513120198</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2002212789145677</v>
+        <v>-0.1999847511238405</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1117426060983445</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6494941370161743</v>
+        <v>-0.6477011979605385</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.196604817689573</v>
+        <v>-1.195336035898573</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2302938894430142</v>
+        <v>-0.2291594320763782</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1302827038421184</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6725190954098046</v>
+        <v>-0.6701421371178052</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.156203826966038</v>
+        <v>-1.155505923978584</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2648926490532776</v>
+        <v>-0.2635406445210962</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.148966899956694</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7675361050699608</v>
+        <v>-0.7660979577004158</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.143002072128042</v>
+        <v>-1.142112902840678</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3173025353245363</v>
+        <v>-0.3158308068489003</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1674403408730214</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8335083780576704</v>
+        <v>-0.8323987415085798</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102599621356416</v>
+        <v>-1.102898931215053</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3513026752175272</v>
+        <v>-0.3495710581817095</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1856876507776621</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9648893454699987</v>
+        <v>-0.9630015032884538</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.094348889594691</v>
+        <v>-1.0935765241546</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3943886943802429</v>
+        <v>-0.3928483436443342</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2034838590046298</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.086895344090602</v>
+        <v>-1.084194255122421</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.0941868242566</v>
+        <v>-1.09330203511351</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4365300624281406</v>
+        <v>-0.4343093292818685</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2206531510989447</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.146095914032677</v>
+        <v>-1.143965703868042</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.13343875713259</v>
+        <v>-1.132337880872045</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4960795838639429</v>
+        <v>-0.4936281631193071</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2372583196486769</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.242485368898288</v>
+        <v>-1.239901083777379</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.162337488995946</v>
+        <v>-1.16094606316531</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5241840495658444</v>
+        <v>-0.5222188248354813</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2531734654858287</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.374102864101344</v>
+        <v>-1.370038090216254</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.123411146844229</v>
+        <v>-1.121621127884775</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5492238743249286</v>
+        <v>-0.5473637730571109</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2689776541356191</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.433342855341873</v>
+        <v>-1.429451827179601</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.202583714621844</v>
+        <v>-1.200154194598572</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6038004719630957</v>
+        <v>-0.6018717484350053</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2852427993320544</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.53276337004421</v>
+        <v>-1.529235893856574</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.293603112609092</v>
+        <v>-1.290991086574457</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6484268418617201</v>
+        <v>-0.6473069849759931</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3023016898236207</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.557184134412749</v>
+        <v>-1.555328413289204</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.363578837462073</v>
+        <v>-1.360790145608438</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6720095386260774</v>
+        <v>-0.6709115824617141</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3205475446926411</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.62270963268464</v>
+        <v>-1.621779582050731</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.446001472290051</v>
+        <v>-1.44297917274187</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.666708104007988</v>
+        <v>-0.6663518522738062</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3393051209039357</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.677480416718898</v>
+        <v>-1.677115404696171</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.520770535025486</v>
+        <v>-1.518272392741941</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6919026938647085</v>
+        <v>-0.6911040475589814</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3583723132522845</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.711347692235617</v>
+        <v>-1.709947506116435</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.632086061524456</v>
+        <v>-1.629380592412002</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7335564058502427</v>
+        <v>-0.7320569364608794</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3775057171262133</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.691007762281167</v>
+        <v>-1.690182835109804</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.72655263305434</v>
+        <v>-1.723410609562704</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7554074855787822</v>
+        <v>-0.7544350935502371</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3962075436973874</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.679892416165079</v>
+        <v>-1.678673276009171</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.778558086004417</v>
+        <v>-1.775881817853781</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7764204977031403</v>
+        <v>-0.7762365316436858</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4138459351252531</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.630998325696729</v>
+        <v>-1.629793786021729</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.849825953417852</v>
+        <v>-1.84777385582608</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7742902875385045</v>
+        <v>-0.7733397962313229</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4296342894956762</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.542688776966207</v>
+        <v>-1.541796687582662</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.951632916724779</v>
+        <v>-1.950517439983325</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7772016234317765</v>
+        <v>-0.7765606623198675</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4430381602324548</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424624908191057</v>
+        <v>-1.424017528185239</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004137706121947</v>
+        <v>-2.003828175926675</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7639254061411437</v>
+        <v>-0.7639064255159618</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4533913871169569</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.288596607705366</v>
+        <v>-1.288948479295275</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.055676673706979</v>
+        <v>-2.054909418435206</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7506856900527835</v>
+        <v>-0.7508784164007835</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4600008056730414</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104862695897325</v>
+        <v>-1.106763678511688</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.081556756142381</v>
+        <v>-2.082050252397108</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7244865871095179</v>
+        <v>-0.7247201948040632</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4619890431932295</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9423783240043685</v>
+        <v>-0.9459145604805493</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.078641040104836</v>
+        <v>-2.078811865731472</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6693522511006236</v>
+        <v>-0.6697114229309871</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.458080702890761</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7002585490889789</v>
+        <v>-0.7034064127729781</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.112473274467372</v>
+        <v>-2.113632552651554</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6113912619877301</v>
+        <v>-0.6106758384231847</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4482494713030446</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4431718211936843</v>
+        <v>-0.4459897140091381</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.114358926576781</v>
+        <v>-2.115883946807735</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5172561213744826</v>
+        <v>-0.5167830657930281</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4330527192278401</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1549860689620344</v>
+        <v>-0.1558591777203978</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.100351955216648</v>
+        <v>-2.101386399289057</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4488265874497737</v>
+        <v>-0.4479724593165921</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4132669649986426</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1442960487605216</v>
+        <v>0.1446975619855215</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.036062387653711</v>
+        <v>-2.035027213557257</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3348537734253498</v>
+        <v>-0.3335280497588047</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.389483388392965</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4876876793575203</v>
+        <v>0.4895288000001561</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.978676657488636</v>
+        <v>-1.977591111733045</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2540970534690987</v>
+        <v>-0.2530136977856445</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3626453693783369</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7923836554011657</v>
+        <v>0.7953971946608013</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.906879522642246</v>
+        <v>-1.905504887364655</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1803033028583913</v>
+        <v>-0.1789863394803916</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3332254266569282</v>
       </c>
       <c r="E86" t="n">
-        <v>1.108107374675445</v>
+        <v>1.110996809847353</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.857691962507623</v>
+        <v>-1.855399687004896</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1057401069037749</v>
+        <v>-0.1054758381993205</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.3020308075788523</v>
       </c>
       <c r="E87" t="n">
-        <v>1.353801347317379</v>
+        <v>1.355549024882196</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.684666773422351</v>
+        <v>-1.680269108572534</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05942008121969645</v>
+        <v>-0.05904776895651473</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2697739674617147</v>
       </c>
       <c r="E88" t="n">
-        <v>1.57728506840041</v>
+        <v>1.579498501306227</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.50446909809049</v>
+        <v>-1.499154523039583</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01002272608010309</v>
+        <v>0.01013806987928487</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.236737117021866</v>
       </c>
       <c r="E89" t="n">
-        <v>1.764232546056541</v>
+        <v>1.767739581570904</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.274022407661916</v>
+        <v>-1.266249111625918</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0656155171895427</v>
+        <v>0.06610463329999712</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.203863840723206</v>
       </c>
       <c r="E90" t="n">
-        <v>1.945716523756492</v>
+        <v>1.949728735910309</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.045599343887341</v>
+        <v>-1.036866796255616</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09808260658707944</v>
+        <v>0.09825927240607939</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1711472928308674</v>
       </c>
       <c r="E91" t="n">
-        <v>2.128875176616716</v>
+        <v>2.13384664036626</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8216440272709463</v>
+        <v>-0.8122953393448579</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08140301719653846</v>
+        <v>0.08173298806508383</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1396284750972104</v>
       </c>
       <c r="E92" t="n">
-        <v>2.245698004514594</v>
+        <v>2.249891262631683</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6213750708333637</v>
+        <v>-0.6116642909807299</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0928892155277172</v>
+        <v>0.09221467330971737</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.110023000647327</v>
       </c>
       <c r="E93" t="n">
-        <v>2.349138031611202</v>
+        <v>2.353702141943383</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3730778324453395</v>
+        <v>-0.3630122609066149</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0439965851074576</v>
+        <v>0.04305193399263967</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08413196209012337</v>
       </c>
       <c r="E94" t="n">
-        <v>2.369301295746651</v>
+        <v>2.373063839676923</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2311071362296503</v>
+        <v>-0.2211072668550167</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008726203375376163</v>
+        <v>0.007969898464285457</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0624986668706963</v>
       </c>
       <c r="E95" t="n">
-        <v>2.3250005165723</v>
+        <v>2.327647583761117</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.06624872614087643</v>
+        <v>-0.05752931894196969</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02803342740943215</v>
+        <v>-0.02853422390461383</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04579115104195386</v>
       </c>
       <c r="E96" t="n">
-        <v>2.226769941064053</v>
+        <v>2.228904531372962</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05374678625854589</v>
+        <v>0.06256401667954352</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06954697477823918</v>
+        <v>-0.070893139118057</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.03368896565819149</v>
       </c>
       <c r="E97" t="n">
-        <v>2.078248009064457</v>
+        <v>2.081181245679093</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1262410940683446</v>
+        <v>0.1333398478863427</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1246433495367698</v>
+        <v>-0.1262362620039512</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.026357117172682</v>
       </c>
       <c r="E98" t="n">
-        <v>1.885397556976781</v>
+        <v>1.888041704069417</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1928528681198722</v>
+        <v>0.1986813800987797</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1399227528081294</v>
+        <v>-0.1401709609835839</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.02302847009072878</v>
       </c>
       <c r="E99" t="n">
-        <v>1.68834362643538</v>
+        <v>1.691063696028743</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2032863717775057</v>
+        <v>0.2081687725935044</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1341803836665855</v>
+        <v>-0.1339920374628582</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.02359013474929548</v>
       </c>
       <c r="E100" t="n">
-        <v>1.529377970441513</v>
+        <v>1.533378502210603</v>
       </c>
       <c r="F100" t="n">
-        <v>0.227861901243681</v>
+        <v>0.231650726039589</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1298279803075866</v>
+        <v>-0.1304003191592228</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.02632836458786304</v>
       </c>
       <c r="E101" t="n">
-        <v>1.385977887144825</v>
+        <v>1.390899709259278</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2198126561185013</v>
+        <v>0.2223648201814097</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1107393115670463</v>
+        <v>-0.1107714326250463</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02993206996310176</v>
       </c>
       <c r="E102" t="n">
-        <v>1.203536117897237</v>
+        <v>1.210383743443599</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2344364977970428</v>
+        <v>0.2366820517608604</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1425143381694923</v>
+        <v>-0.1421697668200379</v>
       </c>
     </row>
   </sheetData>
